--- a/Design/Testing/Staff Page Test.xlsx
+++ b/Design/Testing/Staff Page Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745656A8-99A1-4F6B-A699-590BFC91C9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE90A4-88CB-4C56-BA86-9388DB102674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,18 +722,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="8" width="35.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>

--- a/Design/Testing/Staff Page Test.xlsx
+++ b/Design/Testing/Staff Page Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE90A4-88CB-4C56-BA86-9388DB102674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E87950-083E-4A63-9C7F-34631ED332DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,21 +722,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -890,7 +888,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
